--- a/Database.xlsx
+++ b/Database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -52,20 +52,32 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Config</t>
-  </si>
-  <si>
     <t>Sites</t>
   </si>
   <si>
     <t>site_id</t>
+  </si>
+  <si>
+    <t>Manufacture</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Link product</t>
+  </si>
+  <si>
+    <t>Manufacture_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +85,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,8 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,115 +426,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I15"/>
+  <dimension ref="B4:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -37,33 +37,33 @@
     <t>Products</t>
   </si>
   <si>
-    <t>Detail</t>
-  </si>
-  <si>
     <t>Product_id</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>category_id</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
+    <t>Config</t>
+  </si>
+  <si>
     <t>Sites</t>
   </si>
   <si>
     <t>site_id</t>
   </si>
   <si>
-    <t>Manufacture</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>Manufacture_id</t>
+  </si>
+  <si>
+    <t>Manufactures</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>resolution</t>
   </si>
 </sst>
 </file>
@@ -428,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +462,7 @@
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
@@ -459,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -496,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -504,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -512,52 +536,84 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
